--- a/test_sorting_time3.xlsx
+++ b/test_sorting_time3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksy\Documents\GitHub\external_sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359CF108-7998-4AF9-9B10-32F5CDFE38D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDA40F-F55C-4F8E-ADA6-24FB1D5FF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,13 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"test_sorting_time3.txt"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029"/>
   <webPublishing css="0" allowPng="1" codePage="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>N</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>sum_price</t>
+  </si>
+  <si>
+    <t>N'</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="uk-UA"/>
-              <a:t>швидкість злиття 10 файлів залежно від їхнього розміру</a:t>
+              <a:t>Час сортування та злиття 10 файлів залежно від їхнього розміру</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1602,6 +1605,1146 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="uk-UA"/>
+              <a:t>Час виконання</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.6999999998661224E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18699999999807915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4529999999977008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68800000000192085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1570000000028813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3119999999980791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1090000000003783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.984000000000378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.609000000000378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193.98500000000058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>246.5779999999977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>354.89100000000326</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1392.4370000000054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-009E-4D6A-A858-17E95BC83E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.7000000002299203E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29699999999866122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42199999999866122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70300000000133878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98500000000058208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4369999999980791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3129999999982829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.703000000001339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.311999999998079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.952999999997701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128.65599999999904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184.84400000000096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>303.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1403.9370000000054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-009E-4D6A-A858-17E95BC83E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.6999999998661224E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20300000000133878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4209999999984575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78099999999903957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7819999999992433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0780000000013388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2339999999967404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.359000000000378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.313000000001921</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.437999999998283</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130.06300000000192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225.23400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>438.92199999999139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1539.8279999999941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-009E-4D6A-A858-17E95BC83E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.7000000002299203E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2029999999977008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48399999999674037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73400000000037835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82800000000133878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8119999999980791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1399999999994179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.609000000000378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.828000000001339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.688000000001921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>124.23400000000038</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216.65600000000268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350.76499999999942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1385.9060000000027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-009E-4D6A-A858-17E95BC83E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>775000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.2999999998282874E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21900000000096043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43799999999828287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8909999999996217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9850000000005821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.156999999999243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.436999999998079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.202999999997701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243.96900000000096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>219.21899999999732</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>385.34399999999732</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1508.3279999999941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-009E-4D6A-A858-17E95BC83E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>O(n log n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$R$2:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.9657842846620867E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3791522800911033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68338687468146631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0012984961162947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3287712379549452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8711494317494264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6609291990027106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.587479234700652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.609640474436812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.507760625878191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.87989651190762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151.61973508238358</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199.31568569324173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>703.04026934262117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-009E-4D6A-A858-17E95BC83E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>O(n*n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>test_sorting_time3.txt!$S$2:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3375000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.60375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63375000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6037499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6337.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-009E-4D6A-A858-17E95BC83E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1498728800"/>
+        <c:axId val="1495751216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1498728800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1495751216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1495751216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498728800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1682,6 +2825,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2714,20 +3897,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2783,6 +4482,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Діаграма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC1B3A5-9E1E-4B32-BA4A-389F1D148DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3088,20 +4823,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="13" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3147,8 +4883,14 @@
       <c r="O1" t="s">
         <v>4</v>
       </c>
+      <c r="R1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S1">
+        <v>6E-10</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -3196,8 +4938,20 @@
         <f>AVERAGE(B2:K2)</f>
         <v>4.8500000000058205E-2</v>
       </c>
+      <c r="Q2">
+        <f>A2/10</f>
+        <v>1000</v>
+      </c>
+      <c r="R2">
+        <f>$R$1*(Q2)*LOG(Q2,2)</f>
+        <v>9.9657842846620867E-2</v>
+      </c>
+      <c r="S2">
+        <f>$S$1*Q2*Q2</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>32500</v>
       </c>
@@ -3245,8 +4999,20 @@
         <f t="shared" ref="O3:O14" si="1">AVERAGE(B3:K3)</f>
         <v>0.22659999999996217</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q15" si="2">A3/10</f>
+        <v>3250</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R15" si="3">$R$1*(Q3)*LOG(Q3,2)</f>
+        <v>0.3791522800911033</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S15" si="4">$S$1*Q3*Q3</f>
+        <v>6.3375000000000003E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>55000</v>
       </c>
@@ -3294,8 +5060,20 @@
         <f t="shared" si="1"/>
         <v>0.44059999999844879</v>
       </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0.68338687468146631</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>1.8149999999999999E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>77500</v>
       </c>
@@ -3343,8 +5121,20 @@
         <f t="shared" si="1"/>
         <v>0.67640000000064904</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>7750</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>1.0012984961162947</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>3.60375E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>100000</v>
       </c>
@@ -3392,8 +5182,20 @@
         <f t="shared" si="1"/>
         <v>0.92350000000042198</v>
       </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>1.3287712379549452</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>325000</v>
       </c>
@@ -3441,8 +5243,20 @@
         <f t="shared" si="1"/>
         <v>3.7468000000000758</v>
       </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>32500</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>4.8711494317494264</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0.63375000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>550000</v>
       </c>
@@ -3490,8 +5304,20 @@
         <f t="shared" si="1"/>
         <v>7.3873999999996158</v>
       </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>55000</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>8.6609291990027106</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>1.8150000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>775000</v>
       </c>
@@ -3539,8 +5365,20 @@
         <f t="shared" si="1"/>
         <v>11.757800000000497</v>
       </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>77500</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>12.587479234700652</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>3.6037499999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1000000</v>
       </c>
@@ -3588,8 +5426,20 @@
         <f t="shared" si="1"/>
         <v>15.76720000000023</v>
       </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>16.609640474436812</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>3250000</v>
       </c>
@@ -3637,8 +5487,20 @@
         <f t="shared" si="1"/>
         <v>71.846799999999348</v>
       </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>325000</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>59.507760625878191</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>63.375</v>
+      </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>5500000</v>
       </c>
@@ -3686,8 +5548,20 @@
         <f t="shared" si="1"/>
         <v>151.53460000000049</v>
       </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>550000</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>104.87989651190762</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>181.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>7750000</v>
       </c>
@@ -3735,8 +5609,20 @@
         <f t="shared" si="1"/>
         <v>225.15299999999948</v>
       </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>775000</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>151.61973508238358</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>360.375</v>
+      </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>10000000</v>
       </c>
@@ -3784,8 +5670,20 @@
         <f t="shared" si="1"/>
         <v>356.71100000000007</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>199.31568569324173</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>32500000</v>
       </c>
@@ -3804,15 +5702,27 @@
       <c r="F15">
         <v>1508.3279999999941</v>
       </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>3250000</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>703.04026934262117</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>6337.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3856,11 +5766,11 @@
       <c r="O18" t="s">
         <v>4</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19">
         <f>A2/$A$17</f>
         <v>0.1</v>
@@ -3870,851 +5780,851 @@
         <v>0.46999999998661224</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:O19" si="2">C2/$A19</f>
+        <f t="shared" ref="C19:O19" si="5">C2/$A19</f>
         <v>0.47000000002299203</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46999999998661224</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.47000000002299203</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.62999999998282874</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.45999999998457497</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.47000000002299203</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46999999998661224</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.47000000002299203</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46999999998661224</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8500000000058208</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.5599999999903957</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.709999999984575</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.48500000000058202</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f>N19+O19</f>
         <v>2.194999999985157</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20">
-        <f t="shared" ref="A20:A31" si="3">A3/$A$17</f>
+        <f t="shared" ref="A20:A31" si="6">A3/$A$17</f>
         <v>0.32500000000000001</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:O31" si="4">B3/$A20</f>
+        <f t="shared" ref="B20:O31" si="7">B3/$A20</f>
         <v>0.575384615378705</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.91384615384203449</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.62461538461950394</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.62461538460831012</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.67384615384910895</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.72000000000116415</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.67384615384910895</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.72307692307871407</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.62461538461950394</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.81846153846037428</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.9723076923065284</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.9815384615414162</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0092307692348885</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.69723076923065275</v>
       </c>
-      <c r="P20">
-        <f t="shared" ref="P20:P31" si="5">N20+O20</f>
+      <c r="Q20">
+        <f t="shared" ref="Q20:Q31" si="8">N20+O20</f>
         <v>1.7064615384655413</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.82363636363218318</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.76727272727029305</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.76545454545174085</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.8799999999940733</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.79636363636051422</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.73818181818007189</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.71090909090840293</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.82363636363218318</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.93818181818113022</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.76727272727029305</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.0109090908808867</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.8345454545461415</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.82363636366525572</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.80109090908808867</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="5"/>
+      <c r="Q21">
+        <f t="shared" si="8"/>
         <v>1.6247272727533444</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.8877419354863495</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.90709677419527579</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0077419354826316</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.94709677419403659</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.80645161290322576</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.76645161290446506</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.82580645161215216</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.90709677419527579</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.78580645161339135</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.88645161290544139</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.7277419354922454</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.4348387096796351</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.70709677418738959</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.87277419354922459</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="5"/>
+      <c r="Q22">
+        <f t="shared" si="8"/>
         <v>1.5798709677366141</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1570000000028813</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98500000000058208</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.7819999999992433</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.82800000000133878</v>
       </c>
       <c r="F23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.90599999999903957</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.89100000000325963</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98400000000037835</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.93699999999807915</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.88999999999941792</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.2350000000042201</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.8430000000007567</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.60799999999653664</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.92350000000042198</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="5"/>
+      <c r="Q23">
+        <f t="shared" si="8"/>
         <v>1.5314999999969587</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.25</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3267692307686398</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0575384615378705</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2547692307696428</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1729230769224859</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1972307692306527</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0190769230774515</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0529230769237843</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1972307692306527</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1058461538464495</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1443076923079878</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.528615384615618</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.105538461537575</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.57692307692195754</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1528615384615617</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="5"/>
+      <c r="Q24">
+        <f t="shared" si="8"/>
         <v>1.7297846153835192</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2925454545455233</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6932727272724151</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1334545454539529</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4799999999998941</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4518181818182876</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2299999999998941</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4232727272729706</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2641818181820617</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0767272727270294</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3863636363636365</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13.431636363635665</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13.974363636363705</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.54272727272804</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3431636363635666</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="5"/>
+      <c r="Q25">
+        <f t="shared" si="8"/>
         <v>1.8858909090916067</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.75</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4172903225806939</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3810322580646888</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4656774193548876</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3689032258065004</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.568645161290225</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4436129032255849</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7338064516131249</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2963870967744902</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4960000000001239</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.17135483871032</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.689548387096899</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.5181935483865785</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5171354838710318</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="5"/>
+      <c r="Q26">
+        <f t="shared" si="8"/>
         <v>2.0353290322576103</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4375</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3311999999998079</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7313000000001921</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4828000000001338</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.743699999999808</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8781000000002677</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7046999999998662</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.556199999999808</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4657000000002882</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4360000000000581</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.76720000000023</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.279699999999867</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.51249999999963625</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.576720000000023</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
+      <c r="Q27">
+        <f t="shared" si="8"/>
         <v>2.089219999999659</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32.5</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8802769230769347</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0600923076922371</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.567323076923024</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3904000000000591</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0677846153845447</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9076923076923078</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9975692307691832</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0649230769230948</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0278769230768936</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.142769230769213</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22.106707692307491</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22.620184615384584</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.51347692307709414</v>
       </c>
       <c r="O28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.2106707692307492</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="5"/>
+      <c r="Q28">
+        <f t="shared" si="8"/>
         <v>2.7241476923078434</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5270000000000108</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3391999999999826</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3647818181818532</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.258800000000007</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.4358000000000173</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9445999999999581</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3329636363636714</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.2514181818181398</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5034181818182168</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5937636363636889</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27.551745454545546</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28.062800000000028</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.51105454545448248</v>
       </c>
       <c r="O29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7551745454545546</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="5"/>
+      <c r="Q29">
+        <f t="shared" si="8"/>
         <v>3.2662290909090372</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>77.5</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.1816516129031962</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3850838709677542</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9062451612903226</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.795561290322615</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8286322580644816</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8899225806451265</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6421290322580568</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0264129032256952</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8556387096774887</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5407225806451956</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29.051999999999875</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29.585483870967742</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.53348387096786842</v>
       </c>
       <c r="O30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9051999999999931</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="5"/>
+      <c r="Q30">
+        <f t="shared" si="8"/>
         <v>3.4386838709678615</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5489100000000326</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0375000000000001</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.3892199999999137</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5076499999999942</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8534399999999733</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.1709300000000802</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9059399999999731</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6221899999999732</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.4939100000000325</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.1414100000000325</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35.671100000000003</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36.223750000000003</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.5526499999999942</v>
       </c>
       <c r="O31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5671100000000009</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
+      <c r="Q31">
+        <f t="shared" si="8"/>
         <v>4.119759999999995</v>
       </c>
     </row>
@@ -4726,6 +6636,9 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="O2:O14" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>